--- a/analisis sentimen new/normalisasi_text.xlsx
+++ b/analisis sentimen new/normalisasi_text.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
   <si>
     <t>org</t>
   </si>
@@ -244,6 +244,21 @@
   </si>
   <si>
     <t>gapapa</t>
+  </si>
+  <si>
+    <t>dah</t>
+  </si>
+  <si>
+    <t>nak</t>
+  </si>
+  <si>
+    <t>akan</t>
+  </si>
+  <si>
+    <t>tu</t>
+  </si>
+  <si>
+    <t>itu</t>
   </si>
 </sst>
 </file>
@@ -582,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,6 +915,30 @@
       </c>
       <c r="B39" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
